--- a/Tableau/Описание полей.xlsx
+++ b/Tableau/Описание полей.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allom\Downloads\Telegram Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,11 +553,12 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
